--- a/OPM经济数值/公会.xlsx
+++ b/OPM经济数值/公会.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F21AD8-C683-4BC2-9E11-0A84F42A7CE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB98EF9-3B05-4159-8829-EA0E36952B27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="270" windowWidth="25620" windowHeight="14400" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公会副本" sheetId="1" r:id="rId1"/>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1512,7 +1512,7 @@
     <col min="4" max="4" width="8" style="20" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="19.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="5"/>
@@ -1630,39 +1630,39 @@
         <v>1</v>
       </c>
       <c r="N3" s="8">
-        <f>VLOOKUP(L3,$G$2:$I$14,3,0)*M3</f>
+        <f t="shared" ref="N3:N31" si="0">VLOOKUP(L3,$G$2:$I$14,3,0)*M3</f>
         <v>50</v>
       </c>
       <c r="O3" s="8" t="str">
-        <f>VLOOKUP(L3,$G$2:$I$14,2,0)&amp;","&amp;M3</f>
+        <f t="shared" ref="O3:O31" si="1">VLOOKUP(L3,$G$2:$I$14,2,0)&amp;","&amp;M3</f>
         <v>prop,701,1</v>
       </c>
       <c r="P3" s="9">
         <v>100</v>
       </c>
       <c r="Q3" s="10">
-        <f>P3/$P$32</f>
+        <f t="shared" ref="Q3:Q31" si="2">P3/$P$32</f>
         <v>0.13568521031207598</v>
       </c>
       <c r="R3" s="9">
         <v>69</v>
       </c>
       <c r="S3" s="10">
-        <f>R3/$R$32</f>
+        <f t="shared" ref="S3:S31" si="3">R3/$R$32</f>
         <v>0.11004784688995216</v>
       </c>
       <c r="T3" s="9">
         <v>50</v>
       </c>
       <c r="U3" s="10">
-        <f>T3/$T$32</f>
+        <f t="shared" ref="U3:U31" si="4">T3/$T$32</f>
         <v>8.2236842105263164E-2</v>
       </c>
       <c r="V3" s="9">
         <v>0</v>
       </c>
       <c r="W3" s="10">
-        <f>V3/$V$32</f>
+        <f t="shared" ref="W3:W31" si="5">V3/$V$32</f>
         <v>0</v>
       </c>
     </row>
@@ -1689,39 +1689,39 @@
         <v>2</v>
       </c>
       <c r="N4" s="8">
-        <f>VLOOKUP(L4,$G$2:$I$14,3,0)*M4</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O4" s="8" t="str">
-        <f>VLOOKUP(L4,$G$2:$I$14,2,0)&amp;","&amp;M4</f>
+        <f t="shared" si="1"/>
         <v>prop,701,2</v>
       </c>
       <c r="P4" s="9">
         <v>50</v>
       </c>
       <c r="Q4" s="10">
-        <f>P4/$P$32</f>
+        <f t="shared" si="2"/>
         <v>6.7842605156037988E-2</v>
       </c>
       <c r="R4" s="9">
         <v>50</v>
       </c>
       <c r="S4" s="10">
-        <f>R4/$R$32</f>
+        <f t="shared" si="3"/>
         <v>7.9744816586921854E-2</v>
       </c>
       <c r="T4" s="9">
         <v>50</v>
       </c>
       <c r="U4" s="10">
-        <f>T4/$T$32</f>
+        <f t="shared" si="4"/>
         <v>8.2236842105263164E-2</v>
       </c>
       <c r="V4" s="9">
         <v>0</v>
       </c>
       <c r="W4" s="10">
-        <f>V4/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1742,39 +1742,39 @@
         <v>2</v>
       </c>
       <c r="N5" s="8">
-        <f>VLOOKUP(L5,$G$2:$I$14,3,0)*M5</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="O5" s="8" t="str">
-        <f>VLOOKUP(L5,$G$2:$I$14,2,0)&amp;","&amp;M5</f>
+        <f t="shared" si="1"/>
         <v>prop,704,2</v>
       </c>
       <c r="P5" s="9">
         <v>40</v>
       </c>
       <c r="Q5" s="10">
-        <f>P5/$P$32</f>
+        <f t="shared" si="2"/>
         <v>5.4274084124830396E-2</v>
       </c>
       <c r="R5" s="9">
         <v>40</v>
       </c>
       <c r="S5" s="10">
-        <f>R5/$R$32</f>
+        <f t="shared" si="3"/>
         <v>6.3795853269537475E-2</v>
       </c>
       <c r="T5" s="9">
         <v>40</v>
       </c>
       <c r="U5" s="10">
-        <f>T5/$T$32</f>
+        <f t="shared" si="4"/>
         <v>6.5789473684210523E-2</v>
       </c>
       <c r="V5" s="9">
         <v>0</v>
       </c>
       <c r="W5" s="10">
-        <f>V5/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1803,39 +1803,39 @@
         <v>4</v>
       </c>
       <c r="N6" s="8">
-        <f>VLOOKUP(L6,$G$2:$I$14,3,0)*M6</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="O6" s="8" t="str">
-        <f>VLOOKUP(L6,$G$2:$I$14,2,0)&amp;","&amp;M6</f>
+        <f t="shared" si="1"/>
         <v>prop,704,4</v>
       </c>
       <c r="P6" s="9">
         <v>10</v>
       </c>
       <c r="Q6" s="10">
-        <f>P6/$P$32</f>
+        <f t="shared" si="2"/>
         <v>1.3568521031207599E-2</v>
       </c>
       <c r="R6" s="9">
         <v>10</v>
       </c>
       <c r="S6" s="10">
-        <f>R6/$R$32</f>
+        <f t="shared" si="3"/>
         <v>1.5948963317384369E-2</v>
       </c>
       <c r="T6" s="9">
         <v>10</v>
       </c>
       <c r="U6" s="10">
-        <f>T6/$T$32</f>
+        <f t="shared" si="4"/>
         <v>1.6447368421052631E-2</v>
       </c>
       <c r="V6" s="9">
         <v>0</v>
       </c>
       <c r="W6" s="10">
-        <f>V6/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1864,39 +1864,39 @@
         <v>1</v>
       </c>
       <c r="N7" s="8">
-        <f>VLOOKUP(L7,$G$2:$I$14,3,0)*M7</f>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="O7" s="8" t="str">
-        <f>VLOOKUP(L7,$G$2:$I$14,2,0)&amp;","&amp;M7</f>
+        <f t="shared" si="1"/>
         <v>prop,702,1</v>
       </c>
       <c r="P7" s="9">
         <v>0</v>
       </c>
       <c r="Q7" s="10">
-        <f>P7/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="9">
         <v>5</v>
       </c>
       <c r="S7" s="10">
-        <f>R7/$R$32</f>
+        <f t="shared" si="3"/>
         <v>7.9744816586921844E-3</v>
       </c>
       <c r="T7" s="9">
         <v>15</v>
       </c>
       <c r="U7" s="10">
-        <f>T7/$T$32</f>
+        <f t="shared" si="4"/>
         <v>2.4671052631578948E-2</v>
       </c>
       <c r="V7" s="9">
         <v>40</v>
       </c>
       <c r="W7" s="10">
-        <f>V7/$V$32</f>
+        <f t="shared" si="5"/>
         <v>9.1324200913242004E-2</v>
       </c>
     </row>
@@ -1925,39 +1925,39 @@
         <v>2</v>
       </c>
       <c r="N8" s="8">
-        <f>VLOOKUP(L8,$G$2:$I$14,3,0)*M8</f>
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
       <c r="O8" s="8" t="str">
-        <f>VLOOKUP(L8,$G$2:$I$14,2,0)&amp;","&amp;M8</f>
+        <f t="shared" si="1"/>
         <v>prop,702,2</v>
       </c>
       <c r="P8" s="9">
         <v>0</v>
       </c>
       <c r="Q8" s="10">
-        <f>P8/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="9">
         <v>0</v>
       </c>
       <c r="S8" s="10">
-        <f>R8/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
       </c>
       <c r="U8" s="10">
-        <f>T8/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V8" s="9">
         <v>20</v>
       </c>
       <c r="W8" s="10">
-        <f>V8/$V$32</f>
+        <f t="shared" si="5"/>
         <v>4.5662100456621002E-2</v>
       </c>
     </row>
@@ -1988,39 +1988,39 @@
         <v>10</v>
       </c>
       <c r="N9" s="8">
-        <f>VLOOKUP(L9,$G$2:$I$14,3,0)*M9</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="O9" s="8" t="str">
-        <f>VLOOKUP(L9,$G$2:$I$14,2,0)&amp;","&amp;M9</f>
+        <f t="shared" si="1"/>
         <v>prop,704,10</v>
       </c>
       <c r="P9" s="9">
         <v>0</v>
       </c>
       <c r="Q9" s="10">
-        <f>P9/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
       </c>
       <c r="S9" s="10">
-        <f>R9/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="9">
         <v>0</v>
       </c>
       <c r="U9" s="10">
-        <f>T9/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V9" s="9">
         <v>53</v>
       </c>
       <c r="W9" s="10">
-        <f>V9/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0.12100456621004566</v>
       </c>
     </row>
@@ -2029,8 +2029,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="12">
-        <f>B9/2</f>
-        <v>312.5</v>
+        <f>B9</f>
+        <v>625</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2052,39 +2052,39 @@
         <v>1</v>
       </c>
       <c r="N10" s="8">
-        <f>VLOOKUP(L10,$G$2:$I$14,3,0)*M10</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O10" s="8" t="str">
-        <f>VLOOKUP(L10,$G$2:$I$14,2,0)&amp;","&amp;M10</f>
+        <f t="shared" si="1"/>
         <v>prop,403,1</v>
       </c>
       <c r="P10" s="9">
         <v>0</v>
       </c>
       <c r="Q10" s="10">
-        <f>P10/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="9">
         <v>5</v>
       </c>
       <c r="S10" s="10">
-        <f>R10/$R$32</f>
+        <f t="shared" si="3"/>
         <v>7.9744816586921844E-3</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
       </c>
       <c r="U10" s="10">
-        <f>T10/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V10" s="9">
         <v>0</v>
       </c>
       <c r="W10" s="10">
-        <f>V10/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C11" s="12">
         <f>$B$10*B11/2</f>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="D11" s="12"/>
       <c r="G11" s="5" t="s">
@@ -2118,39 +2118,39 @@
         <v>5</v>
       </c>
       <c r="N11" s="8">
-        <f>VLOOKUP(L11,$G$2:$I$14,3,0)*M11</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="O11" s="8" t="str">
-        <f>VLOOKUP(L11,$G$2:$I$14,2,0)&amp;","&amp;M11</f>
+        <f t="shared" si="1"/>
         <v>prop,403,5</v>
       </c>
       <c r="P11" s="9">
         <v>0</v>
       </c>
       <c r="Q11" s="10">
-        <f>P11/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="9">
         <v>0</v>
       </c>
       <c r="S11" s="10">
-        <f>R11/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T11" s="9">
         <v>0</v>
       </c>
       <c r="U11" s="10">
-        <f>T11/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11" s="9">
         <v>25</v>
       </c>
       <c r="W11" s="10">
-        <f>V11/$V$32</f>
+        <f t="shared" si="5"/>
         <v>5.7077625570776253E-2</v>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C12" s="12">
         <f>$B$10*B12/2</f>
-        <v>187.5</v>
+        <v>375</v>
       </c>
       <c r="D12" s="12"/>
       <c r="G12" s="5" t="s">
@@ -2184,39 +2184,39 @@
         <v>10</v>
       </c>
       <c r="N12" s="8">
-        <f>VLOOKUP(L12,$G$2:$I$14,3,0)*M12</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="O12" s="8" t="str">
-        <f>VLOOKUP(L12,$G$2:$I$14,2,0)&amp;","&amp;M12</f>
+        <f t="shared" si="1"/>
         <v>prop,403,10</v>
       </c>
       <c r="P12" s="9">
         <v>0</v>
       </c>
       <c r="Q12" s="10">
-        <f>P12/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="9">
         <v>0</v>
       </c>
       <c r="S12" s="10">
-        <f>R12/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
       </c>
       <c r="U12" s="10">
-        <f>T12/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V12" s="9">
         <v>10</v>
       </c>
       <c r="W12" s="10">
-        <f>V12/$V$32</f>
+        <f t="shared" si="5"/>
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C13" s="12">
         <f>CEILING($B$10*B13,10)/2</f>
-        <v>235</v>
+        <v>470</v>
       </c>
       <c r="D13" s="12"/>
       <c r="G13" s="5" t="s">
@@ -2250,39 +2250,39 @@
         <v>1</v>
       </c>
       <c r="N13" s="8">
-        <f>VLOOKUP(L13,$G$2:$I$14,3,0)*M13</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O13" s="8" t="str">
-        <f>VLOOKUP(L13,$G$2:$I$14,2,0)&amp;","&amp;M13</f>
+        <f t="shared" si="1"/>
         <v>prop,801,1</v>
       </c>
       <c r="P13" s="9">
         <v>50</v>
       </c>
       <c r="Q13" s="10">
-        <f>P13/$P$32</f>
+        <f t="shared" si="2"/>
         <v>6.7842605156037988E-2</v>
       </c>
       <c r="R13" s="9">
         <v>50</v>
       </c>
       <c r="S13" s="10">
-        <f>R13/$R$32</f>
+        <f t="shared" si="3"/>
         <v>7.9744816586921854E-2</v>
       </c>
       <c r="T13" s="9">
         <v>50</v>
       </c>
       <c r="U13" s="10">
-        <f>T13/$T$32</f>
+        <f t="shared" si="4"/>
         <v>8.2236842105263164E-2</v>
       </c>
       <c r="V13" s="9">
         <v>0</v>
       </c>
       <c r="W13" s="10">
-        <f>V13/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2313,39 +2313,39 @@
         <v>2</v>
       </c>
       <c r="N14" s="8">
-        <f>VLOOKUP(L14,$G$2:$I$14,3,0)*M14</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="O14" s="8" t="str">
-        <f>VLOOKUP(L14,$G$2:$I$14,2,0)&amp;","&amp;M14</f>
+        <f t="shared" si="1"/>
         <v>prop,801,2</v>
       </c>
       <c r="P14" s="9">
         <v>20</v>
       </c>
       <c r="Q14" s="10">
-        <f>P14/$P$32</f>
+        <f t="shared" si="2"/>
         <v>2.7137042062415198E-2</v>
       </c>
       <c r="R14" s="9">
         <v>20</v>
       </c>
       <c r="S14" s="10">
-        <f>R14/$R$32</f>
+        <f t="shared" si="3"/>
         <v>3.1897926634768738E-2</v>
       </c>
       <c r="T14" s="9">
         <v>20</v>
       </c>
       <c r="U14" s="10">
-        <f>T14/$T$32</f>
+        <f t="shared" si="4"/>
         <v>3.2894736842105261E-2</v>
       </c>
       <c r="V14" s="9">
         <v>0</v>
       </c>
       <c r="W14" s="10">
-        <f>V14/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2368,39 +2368,39 @@
         <v>1</v>
       </c>
       <c r="N15" s="8">
-        <f>VLOOKUP(L15,$G$2:$I$14,3,0)*M15</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="O15" s="8" t="str">
-        <f>VLOOKUP(L15,$G$2:$I$14,2,0)&amp;","&amp;M15</f>
+        <f t="shared" si="1"/>
         <v>prop,802,1</v>
       </c>
       <c r="P15" s="9">
         <v>30</v>
       </c>
       <c r="Q15" s="10">
-        <f>P15/$P$32</f>
+        <f t="shared" si="2"/>
         <v>4.0705563093622797E-2</v>
       </c>
       <c r="R15" s="9">
         <v>30</v>
       </c>
       <c r="S15" s="10">
-        <f>R15/$R$32</f>
+        <f t="shared" si="3"/>
         <v>4.784688995215311E-2</v>
       </c>
       <c r="T15" s="9">
         <v>30</v>
       </c>
       <c r="U15" s="10">
-        <f>T15/$T$32</f>
+        <f t="shared" si="4"/>
         <v>4.9342105263157895E-2</v>
       </c>
       <c r="V15" s="9">
         <v>0</v>
       </c>
       <c r="W15" s="10">
-        <f>V15/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2412,39 +2412,39 @@
         <v>1</v>
       </c>
       <c r="N16" s="8">
-        <f>VLOOKUP(L16,$G$2:$I$14,3,0)*M16</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O16" s="8" t="str">
-        <f>VLOOKUP(L16,$G$2:$I$14,2,0)&amp;","&amp;M16</f>
+        <f t="shared" si="1"/>
         <v>dice,1</v>
       </c>
       <c r="P16" s="9">
         <v>200</v>
       </c>
       <c r="Q16" s="10">
-        <f>P16/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0.27137042062415195</v>
       </c>
       <c r="R16" s="9">
         <v>80</v>
       </c>
       <c r="S16" s="10">
-        <f>R16/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0.12759170653907495</v>
       </c>
       <c r="T16" s="9">
         <v>80</v>
       </c>
       <c r="U16" s="10">
-        <f>T16/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0.13157894736842105</v>
       </c>
       <c r="V16" s="9">
         <v>0</v>
       </c>
       <c r="W16" s="10">
-        <f>V16/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2459,39 +2459,39 @@
         <v>3</v>
       </c>
       <c r="N17" s="8">
-        <f>VLOOKUP(L17,$G$2:$I$14,3,0)*M17</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="O17" s="8" t="str">
-        <f>VLOOKUP(L17,$G$2:$I$14,2,0)&amp;","&amp;M17</f>
+        <f t="shared" si="1"/>
         <v>dice,3</v>
       </c>
       <c r="P17" s="9">
         <v>80</v>
       </c>
       <c r="Q17" s="10">
-        <f>P17/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0.10854816824966079</v>
       </c>
       <c r="R17" s="9">
         <v>80</v>
       </c>
       <c r="S17" s="10">
-        <f>R17/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0.12759170653907495</v>
       </c>
       <c r="T17" s="9">
         <v>80</v>
       </c>
       <c r="U17" s="10">
-        <f>T17/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0.13157894736842105</v>
       </c>
       <c r="V17" s="9">
         <v>0</v>
       </c>
       <c r="W17" s="10">
-        <f>V17/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2509,39 +2509,39 @@
         <v>5</v>
       </c>
       <c r="N18" s="8">
-        <f>VLOOKUP(L18,$G$2:$I$14,3,0)*M18</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="O18" s="8" t="str">
-        <f>VLOOKUP(L18,$G$2:$I$14,2,0)&amp;","&amp;M18</f>
+        <f t="shared" si="1"/>
         <v>dice,5</v>
       </c>
       <c r="P18" s="9">
         <v>12</v>
       </c>
       <c r="Q18" s="10">
-        <f>P18/$P$32</f>
+        <f t="shared" si="2"/>
         <v>1.6282225237449117E-2</v>
       </c>
       <c r="R18" s="9">
         <v>12</v>
       </c>
       <c r="S18" s="10">
-        <f>R18/$R$32</f>
+        <f t="shared" si="3"/>
         <v>1.9138755980861243E-2</v>
       </c>
       <c r="T18" s="9">
         <v>12</v>
       </c>
       <c r="U18" s="10">
-        <f>T18/$T$32</f>
+        <f t="shared" si="4"/>
         <v>1.9736842105263157E-2</v>
       </c>
       <c r="V18" s="9">
         <v>0</v>
       </c>
       <c r="W18" s="10">
-        <f>V18/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2559,39 +2559,39 @@
         <v>1</v>
       </c>
       <c r="N19" s="8">
-        <f>VLOOKUP(L19,$G$2:$I$14,3,0)*M19</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="O19" s="8" t="str">
-        <f>VLOOKUP(L19,$G$2:$I$14,2,0)&amp;","&amp;M19</f>
+        <f t="shared" si="1"/>
         <v>prop,803,1</v>
       </c>
       <c r="P19" s="9">
         <v>0</v>
       </c>
       <c r="Q19" s="10">
-        <f>P19/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R19" s="9">
         <v>5</v>
       </c>
       <c r="S19" s="10">
-        <f>R19/$R$32</f>
+        <f t="shared" si="3"/>
         <v>7.9744816586921844E-3</v>
       </c>
       <c r="T19" s="9">
         <v>5</v>
       </c>
       <c r="U19" s="10">
-        <f>T19/$T$32</f>
+        <f t="shared" si="4"/>
         <v>8.2236842105263153E-3</v>
       </c>
       <c r="V19" s="9">
         <v>0</v>
       </c>
       <c r="W19" s="10">
-        <f>V19/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2609,39 +2609,39 @@
         <v>2</v>
       </c>
       <c r="N20" s="8">
-        <f>VLOOKUP(L20,$G$2:$I$14,3,0)*M20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="O20" s="8" t="str">
-        <f>VLOOKUP(L20,$G$2:$I$14,2,0)&amp;","&amp;M20</f>
+        <f t="shared" si="1"/>
         <v>prop,803,2</v>
       </c>
       <c r="P20" s="9">
         <v>0</v>
       </c>
       <c r="Q20" s="10">
-        <f>P20/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R20" s="9">
         <v>8</v>
       </c>
       <c r="S20" s="10">
-        <f>R20/$R$32</f>
+        <f t="shared" si="3"/>
         <v>1.2759170653907496E-2</v>
       </c>
       <c r="T20" s="9">
         <v>10</v>
       </c>
       <c r="U20" s="10">
-        <f>T20/$T$32</f>
+        <f t="shared" si="4"/>
         <v>1.6447368421052631E-2</v>
       </c>
       <c r="V20" s="9">
         <v>0</v>
       </c>
       <c r="W20" s="10">
-        <f>V20/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2659,39 +2659,39 @@
         <v>1</v>
       </c>
       <c r="N21" s="8">
-        <f>VLOOKUP(L21,$G$2:$I$14,3,0)*M21</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="O21" s="8" t="str">
-        <f>VLOOKUP(L21,$G$2:$I$14,2,0)&amp;","&amp;M21</f>
+        <f t="shared" si="1"/>
         <v>prop,804,1</v>
       </c>
       <c r="P21" s="9">
         <v>0</v>
       </c>
       <c r="Q21" s="10">
-        <f>P21/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="9">
         <v>5</v>
       </c>
       <c r="S21" s="10">
-        <f>R21/$R$32</f>
+        <f t="shared" si="3"/>
         <v>7.9744816586921844E-3</v>
       </c>
       <c r="T21" s="9">
         <v>5</v>
       </c>
       <c r="U21" s="10">
-        <f>T21/$T$32</f>
+        <f t="shared" si="4"/>
         <v>8.2236842105263153E-3</v>
       </c>
       <c r="V21" s="9">
         <v>0</v>
       </c>
       <c r="W21" s="10">
-        <f>V21/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2703,39 +2703,39 @@
         <v>2</v>
       </c>
       <c r="N22" s="8">
-        <f>VLOOKUP(L22,$G$2:$I$14,3,0)*M22</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="O22" s="8" t="str">
-        <f>VLOOKUP(L22,$G$2:$I$14,2,0)&amp;","&amp;M22</f>
+        <f t="shared" si="1"/>
         <v>prop,804,2</v>
       </c>
       <c r="P22" s="9">
         <v>0</v>
       </c>
       <c r="Q22" s="10">
-        <f>P22/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="9">
         <v>8</v>
       </c>
       <c r="S22" s="10">
-        <f>R22/$R$32</f>
+        <f t="shared" si="3"/>
         <v>1.2759170653907496E-2</v>
       </c>
       <c r="T22" s="9">
         <v>10</v>
       </c>
       <c r="U22" s="10">
-        <f>T22/$T$32</f>
+        <f t="shared" si="4"/>
         <v>1.6447368421052631E-2</v>
       </c>
       <c r="V22" s="9">
         <v>0</v>
       </c>
       <c r="W22" s="10">
-        <f>V22/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2762,39 +2762,39 @@
         <v>1</v>
       </c>
       <c r="N23" s="8">
-        <f>VLOOKUP(L23,$G$2:$I$14,3,0)*M23</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="O23" s="8" t="str">
-        <f>VLOOKUP(L23,$G$2:$I$14,2,0)&amp;","&amp;M23</f>
+        <f t="shared" si="1"/>
         <v>prop,323,1</v>
       </c>
       <c r="P23" s="9">
         <v>0</v>
       </c>
       <c r="Q23" s="10">
-        <f>P23/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R23" s="9">
         <v>0</v>
       </c>
       <c r="S23" s="10">
-        <f>R23/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T23" s="9">
         <v>0</v>
       </c>
       <c r="U23" s="10">
-        <f>T23/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V23" s="9">
         <v>50</v>
       </c>
       <c r="W23" s="10">
-        <f>V23/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0.11415525114155251</v>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B24" s="7">
         <f>CEILING($C$11*B18,5)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C24" s="5">
         <v>40</v>
@@ -2819,12 +2819,12 @@
         <v>15</v>
       </c>
       <c r="G24" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B24,5)</f>
-        <v>guild_contribution,75</v>
+        <f t="shared" ref="G24:G43" si="6">"guild_contribution,"&amp;CEILING(B24,5)</f>
+        <v>guild_contribution,150</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B24,5)&amp;";pack,118"</f>
-        <v>guild_contribution,75;pack,118</v>
+        <f t="shared" ref="H24:H43" si="7">"guild_contribution,"&amp;CEILING(B24,5)&amp;";pack,118"</f>
+        <v>guild_contribution,150;pack,118</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>69</v>
@@ -2833,39 +2833,39 @@
         <v>1</v>
       </c>
       <c r="N24" s="8">
-        <f>VLOOKUP(L24,$G$2:$I$14,3,0)*M24</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="O24" s="8" t="str">
-        <f>VLOOKUP(L24,$G$2:$I$14,2,0)&amp;","&amp;M24</f>
+        <f t="shared" si="1"/>
         <v>prop,703,1</v>
       </c>
       <c r="P24" s="9">
         <v>0</v>
       </c>
       <c r="Q24" s="10">
-        <f>P24/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R24" s="9">
         <v>0</v>
       </c>
       <c r="S24" s="10">
-        <f>R24/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T24" s="9">
         <v>0</v>
       </c>
       <c r="U24" s="10">
-        <f>T24/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V24" s="9">
         <v>5</v>
       </c>
       <c r="W24" s="10">
-        <f>V24/$V$32</f>
+        <f t="shared" si="5"/>
         <v>1.1415525114155251E-2</v>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B25" s="7">
         <f>$C$11*B19</f>
-        <v>87.5</v>
+        <v>175</v>
       </c>
       <c r="C25" s="20">
         <v>40</v>
@@ -2890,12 +2890,12 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B25,5)</f>
-        <v>guild_contribution,90</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,175</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B25,5)&amp;";pack,118"</f>
-        <v>guild_contribution,90;pack,118</v>
+        <f t="shared" si="7"/>
+        <v>guild_contribution,175;pack,118</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>80</v>
@@ -2904,39 +2904,39 @@
         <v>1</v>
       </c>
       <c r="N25" s="8">
-        <f>VLOOKUP(L25,$G$2:$I$14,3,0)*M25</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="O25" s="8" t="str">
-        <f>VLOOKUP(L25,$G$2:$I$14,2,0)&amp;","&amp;M25</f>
+        <f t="shared" si="1"/>
         <v>pack,304,1</v>
       </c>
       <c r="P25" s="9">
         <v>0</v>
       </c>
       <c r="Q25" s="10">
-        <f>P25/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="9">
         <v>0</v>
       </c>
       <c r="S25" s="10">
-        <f>R25/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T25" s="9">
         <v>0</v>
       </c>
       <c r="U25" s="10">
-        <f>T25/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V25" s="9">
         <v>10</v>
       </c>
       <c r="W25" s="10">
-        <f>V25/$V$32</f>
+        <f t="shared" si="5"/>
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="B26" s="7">
         <f>$C$11*B20</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C26" s="20">
         <v>40</v>
@@ -2961,12 +2961,12 @@
         <v>17</v>
       </c>
       <c r="G26" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B26,5)</f>
-        <v>guild_contribution,100</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,200</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B26,5)&amp;";pack,118"</f>
-        <v>guild_contribution,100;pack,118</v>
+        <f t="shared" si="7"/>
+        <v>guild_contribution,200;pack,118</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>57</v>
@@ -2975,39 +2975,39 @@
         <v>10</v>
       </c>
       <c r="N26" s="8">
-        <f>VLOOKUP(L26,$G$2:$I$14,3,0)*M26</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O26" s="8" t="str">
-        <f>VLOOKUP(L26,$G$2:$I$14,2,0)&amp;","&amp;M26</f>
+        <f t="shared" si="1"/>
         <v>cash,10</v>
       </c>
       <c r="P26" s="9">
         <v>100</v>
       </c>
       <c r="Q26" s="10">
-        <f>P26/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0.13568521031207598</v>
       </c>
       <c r="R26" s="9">
         <v>50</v>
       </c>
       <c r="S26" s="10">
-        <f>R26/$R$32</f>
+        <f t="shared" si="3"/>
         <v>7.9744816586921854E-2</v>
       </c>
       <c r="T26" s="9">
         <v>50</v>
       </c>
       <c r="U26" s="10">
-        <f>T26/$T$32</f>
+        <f t="shared" si="4"/>
         <v>8.2236842105263164E-2</v>
       </c>
       <c r="V26" s="9">
         <v>0</v>
       </c>
       <c r="W26" s="10">
-        <f>V26/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B27" s="7">
         <f>$C$11*B21</f>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C27" s="20">
         <v>40</v>
@@ -3032,12 +3032,12 @@
         <v>18</v>
       </c>
       <c r="G27" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B27,5)</f>
-        <v>guild_contribution,125</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,250</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B27,5)&amp;";pack,118"</f>
-        <v>guild_contribution,125;pack,118</v>
+        <f t="shared" si="7"/>
+        <v>guild_contribution,250;pack,118</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>57</v>
@@ -3046,39 +3046,39 @@
         <v>20</v>
       </c>
       <c r="N27" s="8">
-        <f>VLOOKUP(L27,$G$2:$I$14,3,0)*M27</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="O27" s="8" t="str">
-        <f>VLOOKUP(L27,$G$2:$I$14,2,0)&amp;","&amp;M27</f>
+        <f t="shared" si="1"/>
         <v>cash,20</v>
       </c>
       <c r="P27" s="9">
         <v>45</v>
       </c>
       <c r="Q27" s="10">
-        <f>P27/$P$32</f>
+        <f t="shared" si="2"/>
         <v>6.1058344640434192E-2</v>
       </c>
       <c r="R27" s="9">
         <v>100</v>
       </c>
       <c r="S27" s="10">
-        <f>R27/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0.15948963317384371</v>
       </c>
       <c r="T27" s="9">
         <v>45</v>
       </c>
       <c r="U27" s="10">
-        <f>T27/$T$32</f>
+        <f t="shared" si="4"/>
         <v>7.4013157894736836E-2</v>
       </c>
       <c r="V27" s="9">
         <v>0</v>
       </c>
       <c r="W27" s="10">
-        <f>V27/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B28" s="7">
         <f>INT($C$12*B18)</f>
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="C28" s="20">
         <v>40</v>
@@ -3103,12 +3103,12 @@
         <v>19</v>
       </c>
       <c r="G28" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B28,5)</f>
-        <v>guild_contribution,115</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,225</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B28,5)&amp;";pack,118"</f>
-        <v>guild_contribution,115;pack,118</v>
+        <f>"guild_contribution,"&amp;CEILING(B28,5)&amp;";pack,119"</f>
+        <v>guild_contribution,225;pack,119</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>57</v>
@@ -3117,39 +3117,39 @@
         <v>50</v>
       </c>
       <c r="N28" s="8">
-        <f>VLOOKUP(L28,$G$2:$I$14,3,0)*M28</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="O28" s="8" t="str">
-        <f>VLOOKUP(L28,$G$2:$I$14,2,0)&amp;","&amp;M28</f>
+        <f t="shared" si="1"/>
         <v>cash,50</v>
       </c>
       <c r="P28" s="9">
         <v>0</v>
       </c>
       <c r="Q28" s="10">
-        <f>P28/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R28" s="9">
         <v>0</v>
       </c>
       <c r="S28" s="10">
-        <f>R28/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T28" s="9">
         <v>46</v>
       </c>
       <c r="U28" s="10">
-        <f>T28/$T$32</f>
+        <f t="shared" si="4"/>
         <v>7.5657894736842105E-2</v>
       </c>
       <c r="V28" s="9">
         <v>0</v>
       </c>
       <c r="W28" s="10">
-        <f>V28/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B29" s="7">
         <f>INT($C$12*B19)</f>
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="C29" s="20">
         <v>40</v>
@@ -3174,12 +3174,12 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B29,5)</f>
-        <v>guild_contribution,135</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B29,5)&amp;";pack,118"</f>
-        <v>guild_contribution,135;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,265</v>
+      </c>
+      <c r="H29" s="20" t="str">
+        <f t="shared" ref="H29:H39" si="8">"guild_contribution,"&amp;CEILING(B29,5)&amp;";pack,119"</f>
+        <v>guild_contribution,265;pack,119</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>57</v>
@@ -3188,39 +3188,39 @@
         <v>100</v>
       </c>
       <c r="N29" s="8">
-        <f>VLOOKUP(L29,$G$2:$I$14,3,0)*M29</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O29" s="8" t="str">
-        <f>VLOOKUP(L29,$G$2:$I$14,2,0)&amp;","&amp;M29</f>
+        <f t="shared" si="1"/>
         <v>cash,100</v>
       </c>
       <c r="P29" s="9">
         <v>0</v>
       </c>
       <c r="Q29" s="10">
-        <f>P29/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R29" s="9">
         <v>0</v>
       </c>
       <c r="S29" s="10">
-        <f>R29/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T29" s="9">
         <v>0</v>
       </c>
       <c r="U29" s="10">
-        <f>T29/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V29" s="9">
         <v>50</v>
       </c>
       <c r="W29" s="10">
-        <f>V29/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0.11415525114155251</v>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B30" s="7">
         <f>INT($C$12*B20)</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C30" s="20">
         <v>40</v>
@@ -3245,12 +3245,12 @@
         <v>21</v>
       </c>
       <c r="G30" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B30,5)</f>
-        <v>guild_contribution,150</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B30,5)&amp;";pack,118"</f>
-        <v>guild_contribution,150;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,300</v>
+      </c>
+      <c r="H30" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,300;pack,119</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>57</v>
@@ -3259,39 +3259,39 @@
         <v>150</v>
       </c>
       <c r="N30" s="8">
-        <f>VLOOKUP(L30,$G$2:$I$14,3,0)*M30</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="O30" s="8" t="str">
-        <f>VLOOKUP(L30,$G$2:$I$14,2,0)&amp;","&amp;M30</f>
+        <f t="shared" si="1"/>
         <v>cash,150</v>
       </c>
       <c r="P30" s="9">
         <v>0</v>
       </c>
       <c r="Q30" s="10">
-        <f>P30/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
       </c>
       <c r="S30" s="10">
-        <f>R30/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T30" s="9">
         <v>0</v>
       </c>
       <c r="U30" s="10">
-        <f>T30/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V30" s="9">
         <v>75</v>
       </c>
       <c r="W30" s="10">
-        <f>V30/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0.17123287671232876</v>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B31" s="7">
         <f>INT($C$12*B21)</f>
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="C31" s="20">
         <v>40</v>
@@ -3316,12 +3316,12 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B31,5)</f>
-        <v>guild_contribution,190</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B31,5)&amp;";pack,118"</f>
-        <v>guild_contribution,190;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,375</v>
+      </c>
+      <c r="H31" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,375;pack,119</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>57</v>
@@ -3330,39 +3330,39 @@
         <v>200</v>
       </c>
       <c r="N31" s="8">
-        <f>VLOOKUP(L31,$G$2:$I$14,3,0)*M31</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="O31" s="8" t="str">
-        <f>VLOOKUP(L31,$G$2:$I$14,2,0)&amp;","&amp;M31</f>
+        <f t="shared" si="1"/>
         <v>cash,200</v>
       </c>
       <c r="P31" s="9">
         <v>0</v>
       </c>
       <c r="Q31" s="10">
-        <f>P31/$P$32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R31" s="9">
         <v>0</v>
       </c>
       <c r="S31" s="10">
-        <f>R31/$R$32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T31" s="9">
         <v>0</v>
       </c>
       <c r="U31" s="10">
-        <f>T31/$T$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V31" s="9">
         <v>100</v>
       </c>
       <c r="W31" s="10">
-        <f>V31/$V$32</f>
+        <f t="shared" si="5"/>
         <v>0.22831050228310501</v>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B32" s="7">
         <f>B28</f>
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="C32" s="20">
         <v>40</v>
@@ -3387,12 +3387,12 @@
         <v>23</v>
       </c>
       <c r="G32" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B32,5)</f>
-        <v>guild_contribution,115</v>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B32,5)&amp;";pack,118"</f>
-        <v>guild_contribution,115;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,225</v>
+      </c>
+      <c r="H32" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,225;pack,119</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>65</v>
@@ -3435,8 +3435,8 @@
         <v>200302</v>
       </c>
       <c r="B33" s="7">
-        <f t="shared" ref="B33:B39" si="0">B29</f>
-        <v>131</v>
+        <f t="shared" ref="B33:B39" si="9">B29</f>
+        <v>262</v>
       </c>
       <c r="C33" s="20">
         <v>40</v>
@@ -3451,12 +3451,12 @@
         <v>24</v>
       </c>
       <c r="G33" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B33,5)</f>
-        <v>guild_contribution,135</v>
-      </c>
-      <c r="H33" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B33,5)&amp;";pack,118"</f>
-        <v>guild_contribution,135;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,265</v>
+      </c>
+      <c r="H33" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,265;pack,119</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3464,8 +3464,8 @@
         <v>200303</v>
       </c>
       <c r="B34" s="7">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
       <c r="C34" s="20">
         <v>40</v>
@@ -3480,12 +3480,12 @@
         <v>25</v>
       </c>
       <c r="G34" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B34,5)</f>
-        <v>guild_contribution,150</v>
-      </c>
-      <c r="H34" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B34,5)&amp;";pack,118"</f>
-        <v>guild_contribution,150;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,300</v>
+      </c>
+      <c r="H34" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,300;pack,119</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>14</v>
@@ -3508,8 +3508,8 @@
         <v>200304</v>
       </c>
       <c r="B35" s="7">
-        <f t="shared" si="0"/>
-        <v>187</v>
+        <f t="shared" si="9"/>
+        <v>375</v>
       </c>
       <c r="C35" s="20">
         <v>40</v>
@@ -3524,12 +3524,12 @@
         <v>26</v>
       </c>
       <c r="G35" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B35,5)</f>
-        <v>guild_contribution,190</v>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B35,5)&amp;";pack,118"</f>
-        <v>guild_contribution,190;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,375</v>
+      </c>
+      <c r="H35" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,375;pack,119</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>55</v>
@@ -3546,8 +3546,8 @@
         <v>200401</v>
       </c>
       <c r="B36" s="7">
-        <f t="shared" si="0"/>
-        <v>112</v>
+        <f t="shared" si="9"/>
+        <v>225</v>
       </c>
       <c r="C36" s="20">
         <v>40</v>
@@ -3562,12 +3562,12 @@
         <v>27</v>
       </c>
       <c r="G36" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B36,5)</f>
-        <v>guild_contribution,115</v>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B36,5)&amp;";pack,118"</f>
-        <v>guild_contribution,115;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,225</v>
+      </c>
+      <c r="H36" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,225;pack,119</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>56</v>
@@ -3584,8 +3584,8 @@
         <v>200402</v>
       </c>
       <c r="B37" s="7">
-        <f t="shared" si="0"/>
-        <v>131</v>
+        <f t="shared" si="9"/>
+        <v>262</v>
       </c>
       <c r="C37" s="20">
         <v>40</v>
@@ -3600,12 +3600,12 @@
         <v>28</v>
       </c>
       <c r="G37" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B37,5)</f>
-        <v>guild_contribution,135</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B37,5)&amp;";pack,118"</f>
-        <v>guild_contribution,135;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,265</v>
+      </c>
+      <c r="H37" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,265;pack,119</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>66</v>
@@ -3622,8 +3622,8 @@
         <v>200403</v>
       </c>
       <c r="B38" s="7">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
       <c r="C38" s="20">
         <v>40</v>
@@ -3638,12 +3638,12 @@
         <v>29</v>
       </c>
       <c r="G38" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B38,5)</f>
-        <v>guild_contribution,150</v>
-      </c>
-      <c r="H38" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B38,5)&amp;";pack,118"</f>
-        <v>guild_contribution,150;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,300</v>
+      </c>
+      <c r="H38" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,300;pack,119</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>73</v>
@@ -3654,8 +3654,8 @@
         <v>200404</v>
       </c>
       <c r="B39" s="7">
-        <f t="shared" si="0"/>
-        <v>187</v>
+        <f t="shared" si="9"/>
+        <v>375</v>
       </c>
       <c r="C39" s="20">
         <v>40</v>
@@ -3670,12 +3670,12 @@
         <v>30</v>
       </c>
       <c r="G39" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B39,5)</f>
-        <v>guild_contribution,190</v>
-      </c>
-      <c r="H39" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B39,5)&amp;";pack,118"</f>
-        <v>guild_contribution,190;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,375</v>
+      </c>
+      <c r="H39" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>guild_contribution,375;pack,119</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B40" s="7">
         <f>ROUND($C$13*B18,-1)</f>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="C40" s="20">
         <v>40</v>
@@ -3701,12 +3701,12 @@
         <v>31</v>
       </c>
       <c r="G40" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B40,5)</f>
-        <v>guild_contribution,140</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,280</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B40,5)&amp;";pack,118"</f>
-        <v>guild_contribution,140;pack,118</v>
+        <f>"guild_contribution,"&amp;CEILING(B40,5)&amp;";pack,120"</f>
+        <v>guild_contribution,280;pack,120</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3715,29 +3715,29 @@
       </c>
       <c r="B41" s="7">
         <f>ROUND($C$13*B19,-1)</f>
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="C41" s="20">
         <v>40</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" ref="D41:D43" si="1">D25*2</f>
+        <f t="shared" ref="D41:D43" si="10">D25*2</f>
         <v>500</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" ref="E41:E43" si="2">E25*2</f>
+        <f t="shared" ref="E41:E43" si="11">E25*2</f>
         <v>500</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G41" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B41,5)</f>
-        <v>guild_contribution,160</v>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B41,5)&amp;";pack,118"</f>
-        <v>guild_contribution,160;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,330</v>
+      </c>
+      <c r="H41" s="20" t="str">
+        <f t="shared" ref="H41:H43" si="12">"guild_contribution,"&amp;CEILING(B41,5)&amp;";pack,120"</f>
+        <v>guild_contribution,330;pack,120</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3746,29 +3746,29 @@
       </c>
       <c r="B42" s="7">
         <f>ROUND($C$13*B20,-1)</f>
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="C42" s="20">
         <v>40</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>600</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>600</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G42" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B42,5)</f>
-        <v>guild_contribution,190</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B42,5)&amp;";pack,118"</f>
-        <v>guild_contribution,190;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,380</v>
+      </c>
+      <c r="H42" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>guild_contribution,380;pack,120</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3777,29 +3777,29 @@
       </c>
       <c r="B43" s="7">
         <f>ROUND($C$13*B21,-1)</f>
-        <v>240</v>
+        <v>470</v>
       </c>
       <c r="C43" s="20">
         <v>40</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
       <c r="E43" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>760</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G43" s="7" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B43,5)</f>
-        <v>guild_contribution,240</v>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f>"guild_contribution,"&amp;CEILING(B43,5)&amp;";pack,118"</f>
-        <v>guild_contribution,240;pack,118</v>
+        <f t="shared" si="6"/>
+        <v>guild_contribution,470</v>
+      </c>
+      <c r="H43" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>guild_contribution,470;pack,120</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -5080,7 +5080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA45673-4D69-4C9A-A34F-032E2CEF5F0D}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
